--- a/flows/FAAR_fund_flow_data.xlsx
+++ b/flows/FAAR_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1955"/>
+  <dimension ref="A1:B1973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19985,6 +19985,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1956">
+      <c r="A1956" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B1956" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B1957" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1958" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B1959" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B1960" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B1961" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1962" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1963" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1964" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1965" t="n">
+        <v>-2.835</v>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1966" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1967" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1968" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1969" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B1970" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B1971" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B1972" t="n">
+        <v>-1.4304</v>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B1973" t="n">
+        <v>-1.4319</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
